--- a/Results/Profit SBAV WriteUp R25.xlsx
+++ b/Results/Profit SBAV WriteUp R25.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F18">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="F21">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="F22">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="F23">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="F24">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="F25">
-        <v>10940.95503</v>
+        <v>13400.65503</v>
       </c>
       <c r="G25">
         <v>4</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F26">
-        <v>10214.8406218023</v>
+        <v>12674.5406218023</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="F27">
-        <v>9184.21759286666</v>
+        <v>11643.9175928667</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F28">
-        <v>7256.81868161044</v>
+        <v>9716.51868161044</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="F29">
-        <v>10537.3836060192</v>
+        <v>12997.0836060192</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="F30">
-        <v>9781.14722764438</v>
+        <v>12240.8472276444</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F31">
-        <v>9024.91084926954</v>
+        <v>11484.6108492695</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F32">
-        <v>10087.9954218023</v>
+        <v>12547.6954218023</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>9057.37239286666</v>
+        <v>11517.0723928667</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>7129.97348161044</v>
+        <v>9589.67348161044</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>10394.2284060192</v>
+        <v>12853.9284060192</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>9637.99202764438</v>
+        <v>12097.6920276444</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="F37">
-        <v>8881.75564926954</v>
+        <v>11341.4556492695</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>9893.99962180228</v>
+        <v>12353.6996218023</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="F39">
-        <v>8863.37659286666</v>
+        <v>11323.0765928667</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="F40">
-        <v>6935.97768161044</v>
+        <v>9395.67768161044</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="F41">
-        <v>10103.8172060192</v>
+        <v>12563.5172060192</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F42">
-        <v>9347.58082764438</v>
+        <v>11807.2808276444</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="F43">
-        <v>8591.34444926954</v>
+        <v>11051.0444492695</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="F44">
-        <v>10260.7416218023</v>
+        <v>12720.4416218023</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>9230.11859286666</v>
+        <v>11689.8185928667</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F46">
-        <v>7302.71968161044</v>
+        <v>9762.41968161044</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F47">
-        <v>10625.7372060192</v>
+        <v>13085.4372060192</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="F48">
-        <v>9869.50082764438</v>
+        <v>12329.2008276444</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="F49">
-        <v>9113.26444926954</v>
+        <v>11572.9644492695</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="F50">
-        <v>9243.06881087197</v>
+        <v>11702.768810872</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="F51">
-        <v>6838.28174335554</v>
+        <v>9297.98174335554</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="F52">
-        <v>2341.01761709103</v>
+        <v>4800.71761709103</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F53">
-        <v>9997.47097404482</v>
+        <v>12457.1709740448</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="F54">
-        <v>8232.91942450355</v>
+        <v>10692.6194245035</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="F55">
-        <v>6468.36787496226</v>
+        <v>8928.06787496226</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="F56">
-        <v>8947.81121087197</v>
+        <v>11407.511210872</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>6543.02414335555</v>
+        <v>9002.72414335554</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F58">
-        <v>2045.76001709103</v>
+        <v>4505.46001709103</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="F59">
-        <v>9663.53537404482</v>
+        <v>12123.2353740448</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F60">
-        <v>7898.98382450355</v>
+        <v>10358.6838245035</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="F61">
-        <v>6134.43227496226</v>
+        <v>8594.13227496226</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="F62">
-        <v>8495.37181087197</v>
+        <v>10955.071810872</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="F63">
-        <v>6090.58474335554</v>
+        <v>8550.28474335554</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="F64">
-        <v>1593.32061709103</v>
+        <v>4053.02061709103</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>8986.11117404483</v>
+        <v>11445.8111740448</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="F66">
-        <v>7221.55962450355</v>
+        <v>9681.25962450355</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="F67">
-        <v>5457.00807496226</v>
+        <v>7916.70807496226</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="F68">
-        <v>9350.52841087197</v>
+        <v>11810.228410872</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="F69">
-        <v>6945.74134335554</v>
+        <v>9405.44134335554</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="F70">
-        <v>2448.47721709103</v>
+        <v>4908.17721709102</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="F71">
-        <v>10203.6293740448</v>
+        <v>12663.3293740448</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="F72">
-        <v>8439.07782450355</v>
+        <v>10898.7778245035</v>
       </c>
       <c r="G72">
         <v>4</v>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F73">
-        <v>6674.52627496226</v>
+        <v>9134.22627496226</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F74">
-        <v>8273.06779994168</v>
+        <v>10732.7677999417</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="F75">
-        <v>4494.11669384442</v>
+        <v>6953.81669384442</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="F76">
-        <v>-2573.01264742838</v>
+        <v>-113.31264742838</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="F77">
-        <v>9458.16414207044</v>
+        <v>11917.8641420704</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="F78">
-        <v>6685.29742136273</v>
+        <v>9144.99742136273</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="F79">
-        <v>3912.430700655</v>
+        <v>6372.130700655</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F80">
-        <v>7809.07159994168</v>
+        <v>10268.7715999417</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="F81">
-        <v>4030.12049384442</v>
+        <v>6489.82049384442</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="F82">
-        <v>-3037.00884742838</v>
+        <v>-577.308847428381</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="F83">
-        <v>8933.35494207044</v>
+        <v>11393.0549420704</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="F84">
-        <v>6160.48822136272</v>
+        <v>8620.18822136272</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="F85">
-        <v>3387.62150065499</v>
+        <v>5847.32150065499</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="F86">
-        <v>7098.14199994168</v>
+        <v>9557.84199994168</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="F87">
-        <v>3319.19089384441</v>
+        <v>5778.89089384441</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="F88">
-        <v>-3747.93844742838</v>
+        <v>-1288.23844742838</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>7868.91774207044</v>
+        <v>10328.6177420704</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="F90">
-        <v>5096.05102136272</v>
+        <v>7555.75102136272</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="F91">
-        <v>2323.18430065499</v>
+        <v>4782.88430065499</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="F92">
-        <v>8441.89959994168</v>
+        <v>10901.5995999417</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="F93">
-        <v>4662.94849384442</v>
+        <v>7122.64849384442</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="F94">
-        <v>-2404.18084742838</v>
+        <v>55.51915257162</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="F95">
-        <v>9782.12734207044</v>
+        <v>12241.8273420704</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F96">
-        <v>7009.26062136273</v>
+        <v>9468.96062136272</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="F97">
-        <v>4236.393900655</v>
+        <v>6696.09390065499</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="F98">
-        <v>7303.02018901139</v>
+        <v>9762.72018901139</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="F99">
-        <v>2149.9050443333</v>
+        <v>4609.6050443333</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="F100">
-        <v>-7487.0895119478</v>
+        <v>-5027.38951194781</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="F101">
-        <v>8918.81071009607</v>
+        <v>11378.5107100961</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="F102">
-        <v>5137.62881822189</v>
+        <v>7597.32881822189</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="F103">
-        <v>1356.4469263477</v>
+        <v>3816.1469263477</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="F104">
-        <v>6670.28538901139</v>
+        <v>9129.98538901139</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="F105">
-        <v>1517.1702443333</v>
+        <v>3976.8702443333</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="F106">
-        <v>-8119.82431194781</v>
+        <v>-5660.12431194781</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F107">
-        <v>8203.22111009607</v>
+        <v>10662.9211100961</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="F108">
-        <v>4422.03921822188</v>
+        <v>6881.73921822188</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="F109">
-        <v>640.857326347697</v>
+        <v>3100.5573263477</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>5700.81898901138</v>
+        <v>8160.51898901138</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="F111">
-        <v>547.703844333304</v>
+        <v>3007.4038443333</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F112">
-        <v>-9089.29071194781</v>
+        <v>-6629.59071194781</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="F113">
-        <v>6751.72431009607</v>
+        <v>9211.42431009606</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="F114">
-        <v>2970.54241822189</v>
+        <v>5430.24241822189</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="F115">
-        <v>-810.639473652303</v>
+        <v>1649.0605263477</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="F116">
-        <v>7533.22418901139</v>
+        <v>9992.92418901139</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="F117">
-        <v>2380.1090443333</v>
+        <v>4839.8090443333</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="F118">
-        <v>-7256.88551194781</v>
+        <v>-4797.18551194781</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="F119">
-        <v>9360.57871009607</v>
+        <v>11820.2787100961</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="F120">
-        <v>5579.39681822189</v>
+        <v>8039.09681822188</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="F121">
-        <v>1798.2149263477</v>
+        <v>4257.9149263477</v>
       </c>
       <c r="G121">
         <v>4</v>
